--- a/Importar contatos.xlsx
+++ b/Importar contatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Partners - App\Partner-10.Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AECB897-BBA3-4B05-B569-FF320ABCE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4817323E-7C31-4BB9-A3B7-B9867EDB6906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BF940471-69F5-461C-923F-9F0ECF652F7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF940471-69F5-461C-923F-9F0ECF652F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contatos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Física ou Jurídica?</t>
   </si>
@@ -74,271 +74,7 @@
     <t>Complemento</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>Foto (URL</t>
-  </si>
-  <si>
-    <t>Fisica</t>
-  </si>
-  <si>
-    <t>Ana Paula Silva</t>
-  </si>
-  <si>
-    <t>123.456.789-00</t>
-  </si>
-  <si>
-    <t>ana.silva@email.com</t>
-  </si>
-  <si>
-    <t>(11) 91234-5678</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Rua A</t>
-  </si>
-  <si>
-    <t>Apto 12</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/women/1.jpg</t>
-  </si>
-  <si>
-    <t>Bruno Costa</t>
-  </si>
-  <si>
-    <t>234.567.890-11</t>
-  </si>
-  <si>
-    <t>bruno.costa@email.com</t>
-  </si>
-  <si>
-    <t>(21) 99876-5432</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>Copacabana</t>
-  </si>
-  <si>
-    <t>Rua B</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/men/2.jpg</t>
-  </si>
-  <si>
-    <t>Carla Mendes</t>
-  </si>
-  <si>
-    <t>345.678.901-22</t>
-  </si>
-  <si>
-    <t>carla.mendes@email.com</t>
-  </si>
-  <si>
-    <t>(31) 98765-4321</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Savassi</t>
-  </si>
-  <si>
-    <t>Rua C</t>
-  </si>
-  <si>
-    <t>Sala 5</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/women/3.jpg</t>
-  </si>
-  <si>
-    <t>Diego Rocha</t>
-  </si>
-  <si>
-    <t>456.789.012-33</t>
-  </si>
-  <si>
-    <t>diego.rocha@email.com</t>
-  </si>
-  <si>
-    <t>(41) 97654-3210</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Rua D</t>
-  </si>
-  <si>
-    <t>Fundos</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/men/4.jpg</t>
-  </si>
-  <si>
-    <t>Eduarda Lima</t>
-  </si>
-  <si>
-    <t>567.890.123-44</t>
-  </si>
-  <si>
-    <t>eduarda.lima@email.com</t>
-  </si>
-  <si>
-    <t>(51) 96543-2109</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Moinhos</t>
-  </si>
-  <si>
-    <t>Rua E</t>
-  </si>
-  <si>
-    <t>Apto 21</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/women/5.jpg</t>
-  </si>
-  <si>
-    <t>Felipe Nunes</t>
-  </si>
-  <si>
-    <t>678.901.234-55</t>
-  </si>
-  <si>
-    <t>felipe.nunes@email.com</t>
-  </si>
-  <si>
-    <t>(61) 95432-1098</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>Asa Sul</t>
-  </si>
-  <si>
-    <t>Rua F</t>
-  </si>
-  <si>
-    <t>Bloco B</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/men/6.jpg</t>
-  </si>
-  <si>
-    <t>Gabriela Pires</t>
-  </si>
-  <si>
-    <t>789.012.345-66</t>
-  </si>
-  <si>
-    <t>gabriela.pires@email.com</t>
-  </si>
-  <si>
-    <t>(71) 94321-0987</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Barra</t>
-  </si>
-  <si>
-    <t>Rua G</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/women/7.jpg</t>
-  </si>
-  <si>
-    <t>Henrique Alves</t>
-  </si>
-  <si>
-    <t>890.123.456-77</t>
-  </si>
-  <si>
-    <t>henrique.alves@email.com</t>
-  </si>
-  <si>
-    <t>(81) 93210-9876</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Boa Viagem</t>
-  </si>
-  <si>
-    <t>Rua H</t>
-  </si>
-  <si>
-    <t>Apto 34</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/men/8.jpg</t>
-  </si>
-  <si>
-    <t>Isabela Freitas</t>
-  </si>
-  <si>
-    <t>901.234.567-88</t>
-  </si>
-  <si>
-    <t>isabela.freitas@email.com</t>
-  </si>
-  <si>
-    <t>(91) 92109-8765</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Nazaré</t>
-  </si>
-  <si>
-    <t>Rua I</t>
-  </si>
-  <si>
-    <t>Sala 10</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/women/9.jpg</t>
-  </si>
-  <si>
-    <t>João Ribeiro</t>
-  </si>
-  <si>
-    <t>012.345.678-99</t>
-  </si>
-  <si>
-    <t>joao.ribeiro@email.com</t>
-  </si>
-  <si>
-    <t>(11) 93456-7890</t>
-  </si>
-  <si>
-    <t>Cambuí</t>
-  </si>
-  <si>
-    <t>Rua J</t>
-  </si>
-  <si>
-    <t>https://randomuser.me/api/portraits/men/10.jpg</t>
   </si>
   <si>
     <t>CPF / CNPJ</t>
@@ -354,21 +90,6 @@
   </si>
   <si>
     <t>Quando o tipo de cadastro for Jurídico</t>
-  </si>
-  <si>
-    <t>Jurídico</t>
-  </si>
-  <si>
-    <t>Felipe Nunes 678.901.234-55</t>
-  </si>
-  <si>
-    <t>Gabriela Pires 789.012.345-66</t>
-  </si>
-  <si>
-    <t>13.297.991/0001-25</t>
-  </si>
-  <si>
-    <t>65.257.901/0001-56</t>
   </si>
 </sst>
 </file>
@@ -505,6 +226,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -526,35 +263,19 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,7 +615,7 @@
   <dimension ref="A1:X268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5:U7"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,21 +625,21 @@
     <col min="3" max="3" width="0.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="0.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="0.5703125" customWidth="1"/>
-    <col min="9" max="10" width="24.5703125" style="18" customWidth="1"/>
+    <col min="9" max="10" width="24.5703125" style="8" customWidth="1"/>
     <col min="11" max="11" width="0.5703125" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="6" customWidth="1"/>
     <col min="14" max="14" width="0.5703125" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="23" style="19" customWidth="1"/>
+    <col min="16" max="16" width="23" style="9" customWidth="1"/>
     <col min="17" max="17" width="30.28515625" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="34.140625" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" style="8" customWidth="1"/>
     <col min="22" max="22" width="0.5703125" customWidth="1"/>
     <col min="23" max="23" width="77.85546875" customWidth="1"/>
     <col min="24" max="24" width="0.5703125" customWidth="1"/>
@@ -927,606 +648,338 @@
   <sheetData>
     <row r="1" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="O2" s="11" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="W2" s="8" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="W2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="L5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="L5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="9"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="22"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="19"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="W6" s="15"/>
     </row>
     <row r="7" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="13"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="W7" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="8" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="1">
-        <v>100</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="5"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="L10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="1">
-        <v>200</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="5"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="1">
-        <v>300</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="5"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="L12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="1">
-        <v>400</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="5"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" s="1">
-        <v>500</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="5"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="1">
-        <v>600</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="5"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="1">
-        <v>700</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="5"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="L16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" s="1">
-        <v>800</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W16" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="5"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="L17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T17" s="1">
-        <v>900</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="5"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="L18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="4">
-        <v>15200000</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="21" t="s">
-        <v>100</v>
-      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -1538,7 +991,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="7"/>
       <c r="O19" s="1"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
@@ -1557,7 +1010,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="7"/>
       <c r="O20" s="1"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
@@ -1577,7 +1030,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="7"/>
       <c r="O21" s="1"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="1"/>
@@ -1597,7 +1050,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="17"/>
+      <c r="M22" s="7"/>
       <c r="O22" s="1"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="1"/>
@@ -1617,7 +1070,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="7"/>
       <c r="O23" s="1"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="1"/>
@@ -1637,7 +1090,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="17"/>
+      <c r="M24" s="7"/>
       <c r="O24" s="1"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="1"/>
@@ -1657,7 +1110,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="17"/>
+      <c r="M25" s="7"/>
       <c r="O25" s="1"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="1"/>
@@ -1677,7 +1130,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="17"/>
+      <c r="M26" s="7"/>
       <c r="O26" s="1"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="1"/>
@@ -1697,7 +1150,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="17"/>
+      <c r="M27" s="7"/>
       <c r="O27" s="1"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="1"/>
@@ -1717,7 +1170,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="7"/>
       <c r="O28" s="1"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="1"/>
@@ -1737,7 +1190,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="17"/>
+      <c r="M29" s="7"/>
       <c r="O29" s="1"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="1"/>
@@ -1757,7 +1210,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="7"/>
       <c r="O30" s="1"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="1"/>
@@ -1777,7 +1230,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="17"/>
+      <c r="M31" s="7"/>
       <c r="O31" s="1"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="1"/>
@@ -1797,7 +1250,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="7"/>
       <c r="O32" s="1"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="1"/>
@@ -1817,7 +1270,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="17"/>
+      <c r="M33" s="7"/>
       <c r="O33" s="1"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="1"/>
@@ -1837,7 +1290,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="17"/>
+      <c r="M34" s="7"/>
       <c r="O34" s="1"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="1"/>
@@ -1857,7 +1310,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="17"/>
+      <c r="M35" s="7"/>
       <c r="O35" s="1"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="1"/>
@@ -1877,7 +1330,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="17"/>
+      <c r="M36" s="7"/>
       <c r="O36" s="1"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="1"/>
@@ -1897,7 +1350,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="17"/>
+      <c r="M37" s="7"/>
       <c r="O37" s="1"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="1"/>
@@ -1917,7 +1370,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="17"/>
+      <c r="M38" s="7"/>
       <c r="O38" s="1"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="1"/>
@@ -1937,7 +1390,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="17"/>
+      <c r="M39" s="7"/>
       <c r="O39" s="1"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="1"/>
@@ -1957,7 +1410,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="17"/>
+      <c r="M40" s="7"/>
       <c r="O40" s="1"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="1"/>
@@ -1977,7 +1430,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="17"/>
+      <c r="M41" s="7"/>
       <c r="O41" s="1"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="1"/>
@@ -1997,7 +1450,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="17"/>
+      <c r="M42" s="7"/>
       <c r="O42" s="1"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="1"/>
@@ -2017,7 +1470,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="17"/>
+      <c r="M43" s="7"/>
       <c r="O43" s="1"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="1"/>
@@ -2037,7 +1490,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="17"/>
+      <c r="M44" s="7"/>
       <c r="O44" s="1"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="1"/>
@@ -2057,7 +1510,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="17"/>
+      <c r="M45" s="7"/>
       <c r="O45" s="1"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="1"/>
@@ -2077,7 +1530,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="17"/>
+      <c r="M46" s="7"/>
       <c r="O46" s="1"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="1"/>
@@ -2097,7 +1550,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="17"/>
+      <c r="M47" s="7"/>
       <c r="O47" s="1"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="1"/>
@@ -2117,7 +1570,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="17"/>
+      <c r="M48" s="7"/>
       <c r="O48" s="1"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="1"/>
@@ -2137,7 +1590,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="17"/>
+      <c r="M49" s="7"/>
       <c r="O49" s="1"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="1"/>
@@ -2157,7 +1610,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="17"/>
+      <c r="M50" s="7"/>
       <c r="O50" s="1"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="1"/>
@@ -2177,7 +1630,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="17"/>
+      <c r="M51" s="7"/>
       <c r="O51" s="1"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="1"/>
@@ -2197,7 +1650,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="17"/>
+      <c r="M52" s="7"/>
       <c r="O52" s="1"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="1"/>
@@ -2217,7 +1670,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="17"/>
+      <c r="M53" s="7"/>
       <c r="O53" s="1"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="1"/>
@@ -2237,7 +1690,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="17"/>
+      <c r="M54" s="7"/>
       <c r="O54" s="1"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="1"/>
@@ -2257,7 +1710,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="17"/>
+      <c r="M55" s="7"/>
       <c r="O55" s="1"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="1"/>
@@ -2277,7 +1730,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="17"/>
+      <c r="M56" s="7"/>
       <c r="O56" s="1"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="1"/>
@@ -2297,7 +1750,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="17"/>
+      <c r="M57" s="7"/>
       <c r="O57" s="1"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="1"/>
@@ -2317,7 +1770,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="17"/>
+      <c r="M58" s="7"/>
       <c r="O58" s="1"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="1"/>
@@ -2337,7 +1790,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="17"/>
+      <c r="M59" s="7"/>
       <c r="O59" s="1"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="1"/>
@@ -2357,7 +1810,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="17"/>
+      <c r="M60" s="7"/>
       <c r="O60" s="1"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="1"/>
@@ -2377,7 +1830,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="17"/>
+      <c r="M61" s="7"/>
       <c r="O61" s="1"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="1"/>
@@ -2397,7 +1850,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="17"/>
+      <c r="M62" s="7"/>
       <c r="O62" s="1"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="1"/>
@@ -2417,7 +1870,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="17"/>
+      <c r="M63" s="7"/>
       <c r="O63" s="1"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="1"/>
@@ -2437,7 +1890,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="17"/>
+      <c r="M64" s="7"/>
       <c r="O64" s="1"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="1"/>
@@ -2457,7 +1910,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="17"/>
+      <c r="M65" s="7"/>
       <c r="O65" s="1"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="1"/>
@@ -2477,7 +1930,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="17"/>
+      <c r="M66" s="7"/>
       <c r="O66" s="1"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="1"/>
@@ -2497,7 +1950,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="17"/>
+      <c r="M67" s="7"/>
       <c r="O67" s="1"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="1"/>
@@ -2517,7 +1970,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="17"/>
+      <c r="M68" s="7"/>
       <c r="O68" s="1"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="1"/>
@@ -2537,7 +1990,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="17"/>
+      <c r="M69" s="7"/>
       <c r="O69" s="1"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="1"/>
@@ -2557,7 +2010,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="17"/>
+      <c r="M70" s="7"/>
       <c r="O70" s="1"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="1"/>
@@ -2577,7 +2030,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="17"/>
+      <c r="M71" s="7"/>
       <c r="O71" s="1"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="1"/>
@@ -2597,7 +2050,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="17"/>
+      <c r="M72" s="7"/>
       <c r="O72" s="1"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="1"/>
@@ -2617,7 +2070,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="17"/>
+      <c r="M73" s="7"/>
       <c r="O73" s="1"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="1"/>
@@ -2637,7 +2090,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="17"/>
+      <c r="M74" s="7"/>
       <c r="O74" s="1"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="1"/>
@@ -2657,7 +2110,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="17"/>
+      <c r="M75" s="7"/>
       <c r="O75" s="1"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="1"/>
@@ -2677,7 +2130,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="17"/>
+      <c r="M76" s="7"/>
       <c r="O76" s="1"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="1"/>
@@ -2697,7 +2150,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="17"/>
+      <c r="M77" s="7"/>
       <c r="O77" s="1"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="1"/>
@@ -2717,7 +2170,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="17"/>
+      <c r="M78" s="7"/>
       <c r="O78" s="1"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="1"/>
@@ -2737,7 +2190,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="17"/>
+      <c r="M79" s="7"/>
       <c r="O79" s="1"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="1"/>
@@ -2757,7 +2210,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="17"/>
+      <c r="M80" s="7"/>
       <c r="O80" s="1"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="1"/>
@@ -2777,7 +2230,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="17"/>
+      <c r="M81" s="7"/>
       <c r="O81" s="1"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="1"/>
@@ -2797,7 +2250,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="17"/>
+      <c r="M82" s="7"/>
       <c r="O82" s="1"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="1"/>
@@ -2817,7 +2270,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="17"/>
+      <c r="M83" s="7"/>
       <c r="O83" s="1"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="1"/>
@@ -2837,7 +2290,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="17"/>
+      <c r="M84" s="7"/>
       <c r="O84" s="1"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="1"/>
@@ -2857,7 +2310,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="17"/>
+      <c r="M85" s="7"/>
       <c r="O85" s="1"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="1"/>
@@ -2877,7 +2330,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="17"/>
+      <c r="M86" s="7"/>
       <c r="O86" s="1"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="1"/>
@@ -2897,7 +2350,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="17"/>
+      <c r="M87" s="7"/>
       <c r="O87" s="1"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="1"/>
@@ -2917,7 +2370,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="17"/>
+      <c r="M88" s="7"/>
       <c r="O88" s="1"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="1"/>
@@ -2937,7 +2390,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="17"/>
+      <c r="M89" s="7"/>
       <c r="O89" s="1"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="1"/>
@@ -2957,7 +2410,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="17"/>
+      <c r="M90" s="7"/>
       <c r="O90" s="1"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="1"/>
@@ -2977,7 +2430,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="17"/>
+      <c r="M91" s="7"/>
       <c r="O91" s="1"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="1"/>
@@ -2997,7 +2450,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="17"/>
+      <c r="M92" s="7"/>
       <c r="O92" s="1"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="1"/>
@@ -3017,7 +2470,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="17"/>
+      <c r="M93" s="7"/>
       <c r="O93" s="1"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="1"/>
@@ -3037,7 +2490,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="17"/>
+      <c r="M94" s="7"/>
       <c r="O94" s="1"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="1"/>
@@ -3057,7 +2510,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="17"/>
+      <c r="M95" s="7"/>
       <c r="O95" s="1"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="1"/>
@@ -3077,7 +2530,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="17"/>
+      <c r="M96" s="7"/>
       <c r="O96" s="1"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="1"/>
@@ -3097,7 +2550,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="17"/>
+      <c r="M97" s="7"/>
       <c r="O97" s="1"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="1"/>
@@ -3117,7 +2570,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="17"/>
+      <c r="M98" s="7"/>
       <c r="O98" s="1"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="1"/>
@@ -3137,7 +2590,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="17"/>
+      <c r="M99" s="7"/>
       <c r="O99" s="1"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="1"/>
@@ -3157,7 +2610,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="17"/>
+      <c r="M100" s="7"/>
       <c r="O100" s="1"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="1"/>
@@ -3177,7 +2630,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="17"/>
+      <c r="M101" s="7"/>
       <c r="O101" s="1"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="1"/>
@@ -3197,7 +2650,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="17"/>
+      <c r="M102" s="7"/>
       <c r="O102" s="1"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="1"/>
@@ -3217,7 +2670,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="17"/>
+      <c r="M103" s="7"/>
       <c r="O103" s="1"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="1"/>
@@ -3237,7 +2690,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="17"/>
+      <c r="M104" s="7"/>
       <c r="O104" s="1"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="1"/>
@@ -3257,7 +2710,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="17"/>
+      <c r="M105" s="7"/>
       <c r="O105" s="1"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="1"/>
@@ -3277,7 +2730,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="17"/>
+      <c r="M106" s="7"/>
       <c r="O106" s="1"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="1"/>
@@ -3297,7 +2750,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="17"/>
+      <c r="M107" s="7"/>
       <c r="O107" s="1"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="1"/>
@@ -3317,7 +2770,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="17"/>
+      <c r="M108" s="7"/>
       <c r="O108" s="1"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="1"/>
@@ -3337,7 +2790,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="17"/>
+      <c r="M109" s="7"/>
       <c r="O109" s="1"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="1"/>
@@ -3357,7 +2810,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="17"/>
+      <c r="M110" s="7"/>
       <c r="O110" s="1"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="1"/>
@@ -3377,7 +2830,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="17"/>
+      <c r="M111" s="7"/>
       <c r="O111" s="1"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="1"/>
@@ -3397,7 +2850,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="17"/>
+      <c r="M112" s="7"/>
       <c r="O112" s="1"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="1"/>
@@ -3417,7 +2870,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="17"/>
+      <c r="M113" s="7"/>
       <c r="O113" s="1"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="1"/>
@@ -3437,7 +2890,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="17"/>
+      <c r="M114" s="7"/>
       <c r="O114" s="1"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="1"/>
@@ -3457,7 +2910,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="17"/>
+      <c r="M115" s="7"/>
       <c r="O115" s="1"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="1"/>
@@ -3477,7 +2930,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="17"/>
+      <c r="M116" s="7"/>
       <c r="O116" s="1"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="1"/>
@@ -3497,7 +2950,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="17"/>
+      <c r="M117" s="7"/>
       <c r="O117" s="1"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="1"/>
@@ -3517,7 +2970,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="17"/>
+      <c r="M118" s="7"/>
       <c r="O118" s="1"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="1"/>
@@ -3537,7 +2990,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="17"/>
+      <c r="M119" s="7"/>
       <c r="O119" s="1"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="1"/>
@@ -3557,7 +3010,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="17"/>
+      <c r="M120" s="7"/>
       <c r="O120" s="1"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="1"/>
@@ -3577,7 +3030,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="17"/>
+      <c r="M121" s="7"/>
       <c r="O121" s="1"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="1"/>
@@ -3597,7 +3050,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="17"/>
+      <c r="M122" s="7"/>
       <c r="O122" s="1"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="1"/>
@@ -3617,7 +3070,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="17"/>
+      <c r="M123" s="7"/>
       <c r="O123" s="1"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="1"/>
@@ -3637,7 +3090,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="17"/>
+      <c r="M124" s="7"/>
       <c r="O124" s="1"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="1"/>
@@ -3657,7 +3110,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="17"/>
+      <c r="M125" s="7"/>
       <c r="O125" s="1"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="1"/>
@@ -3677,7 +3130,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="17"/>
+      <c r="M126" s="7"/>
       <c r="O126" s="1"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="1"/>
@@ -3697,7 +3150,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="17"/>
+      <c r="M127" s="7"/>
       <c r="O127" s="1"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="1"/>
@@ -3717,7 +3170,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="17"/>
+      <c r="M128" s="7"/>
       <c r="O128" s="1"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="1"/>
@@ -3737,7 +3190,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="17"/>
+      <c r="M129" s="7"/>
       <c r="O129" s="1"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="1"/>
@@ -3757,7 +3210,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="17"/>
+      <c r="M130" s="7"/>
       <c r="O130" s="1"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="1"/>
@@ -3777,7 +3230,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="17"/>
+      <c r="M131" s="7"/>
       <c r="O131" s="1"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="1"/>
@@ -3797,7 +3250,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="17"/>
+      <c r="M132" s="7"/>
       <c r="O132" s="1"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="1"/>
@@ -3817,7 +3270,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="17"/>
+      <c r="M133" s="7"/>
       <c r="O133" s="1"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="1"/>
@@ -3837,7 +3290,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="17"/>
+      <c r="M134" s="7"/>
       <c r="O134" s="1"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="1"/>
@@ -3857,7 +3310,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="17"/>
+      <c r="M135" s="7"/>
       <c r="O135" s="1"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="1"/>
@@ -3877,7 +3330,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="17"/>
+      <c r="M136" s="7"/>
       <c r="O136" s="1"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="1"/>
@@ -3897,7 +3350,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="17"/>
+      <c r="M137" s="7"/>
       <c r="O137" s="1"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="1"/>
@@ -3917,7 +3370,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="17"/>
+      <c r="M138" s="7"/>
       <c r="O138" s="1"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="1"/>
@@ -3937,7 +3390,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="17"/>
+      <c r="M139" s="7"/>
       <c r="O139" s="1"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="1"/>
@@ -3957,7 +3410,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="17"/>
+      <c r="M140" s="7"/>
       <c r="O140" s="1"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="1"/>
@@ -3977,7 +3430,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="7"/>
       <c r="O141" s="1"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="1"/>
@@ -3997,7 +3450,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="17"/>
+      <c r="M142" s="7"/>
       <c r="O142" s="1"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="1"/>
@@ -4017,7 +3470,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="17"/>
+      <c r="M143" s="7"/>
       <c r="O143" s="1"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="1"/>
@@ -4037,7 +3490,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="17"/>
+      <c r="M144" s="7"/>
       <c r="O144" s="1"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="1"/>
@@ -4057,7 +3510,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="17"/>
+      <c r="M145" s="7"/>
       <c r="O145" s="1"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="1"/>
@@ -4077,7 +3530,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="17"/>
+      <c r="M146" s="7"/>
       <c r="O146" s="1"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="1"/>
@@ -4097,7 +3550,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="17"/>
+      <c r="M147" s="7"/>
       <c r="O147" s="1"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="1"/>
@@ -4117,7 +3570,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="17"/>
+      <c r="M148" s="7"/>
       <c r="O148" s="1"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="1"/>
@@ -4137,7 +3590,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="17"/>
+      <c r="M149" s="7"/>
       <c r="O149" s="1"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="1"/>
@@ -4157,7 +3610,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="17"/>
+      <c r="M150" s="7"/>
       <c r="O150" s="1"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="1"/>
@@ -4177,7 +3630,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="17"/>
+      <c r="M151" s="7"/>
       <c r="O151" s="1"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="1"/>
@@ -4197,7 +3650,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="17"/>
+      <c r="M152" s="7"/>
       <c r="O152" s="1"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="1"/>
@@ -4217,7 +3670,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="17"/>
+      <c r="M153" s="7"/>
       <c r="O153" s="1"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="1"/>
@@ -4237,7 +3690,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="17"/>
+      <c r="M154" s="7"/>
       <c r="O154" s="1"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="1"/>
@@ -4257,7 +3710,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="17"/>
+      <c r="M155" s="7"/>
       <c r="O155" s="1"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="1"/>
@@ -4277,7 +3730,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="17"/>
+      <c r="M156" s="7"/>
       <c r="O156" s="1"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="1"/>
@@ -4297,7 +3750,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="17"/>
+      <c r="M157" s="7"/>
       <c r="O157" s="1"/>
       <c r="P157" s="4"/>
       <c r="Q157" s="1"/>
@@ -4317,7 +3770,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="17"/>
+      <c r="M158" s="7"/>
       <c r="O158" s="1"/>
       <c r="P158" s="4"/>
       <c r="Q158" s="1"/>
@@ -4337,7 +3790,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="17"/>
+      <c r="M159" s="7"/>
       <c r="O159" s="1"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="1"/>
@@ -4357,7 +3810,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="17"/>
+      <c r="M160" s="7"/>
       <c r="O160" s="1"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="1"/>
@@ -4377,7 +3830,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="17"/>
+      <c r="M161" s="7"/>
       <c r="O161" s="1"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="1"/>
@@ -4397,7 +3850,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="L162" s="5"/>
-      <c r="M162" s="17"/>
+      <c r="M162" s="7"/>
       <c r="O162" s="1"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="1"/>
@@ -4417,7 +3870,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="17"/>
+      <c r="M163" s="7"/>
       <c r="O163" s="1"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="1"/>
@@ -4437,7 +3890,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="L164" s="5"/>
-      <c r="M164" s="17"/>
+      <c r="M164" s="7"/>
       <c r="O164" s="1"/>
       <c r="P164" s="4"/>
       <c r="Q164" s="1"/>
@@ -4457,7 +3910,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="L165" s="5"/>
-      <c r="M165" s="17"/>
+      <c r="M165" s="7"/>
       <c r="O165" s="1"/>
       <c r="P165" s="4"/>
       <c r="Q165" s="1"/>
@@ -4477,7 +3930,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="L166" s="5"/>
-      <c r="M166" s="17"/>
+      <c r="M166" s="7"/>
       <c r="O166" s="1"/>
       <c r="P166" s="4"/>
       <c r="Q166" s="1"/>
@@ -4497,7 +3950,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="17"/>
+      <c r="M167" s="7"/>
       <c r="O167" s="1"/>
       <c r="P167" s="4"/>
       <c r="Q167" s="1"/>
@@ -4517,7 +3970,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="17"/>
+      <c r="M168" s="7"/>
       <c r="O168" s="1"/>
       <c r="P168" s="4"/>
       <c r="Q168" s="1"/>
@@ -4537,7 +3990,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="17"/>
+      <c r="M169" s="7"/>
       <c r="O169" s="1"/>
       <c r="P169" s="4"/>
       <c r="Q169" s="1"/>
@@ -4557,7 +4010,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="L170" s="5"/>
-      <c r="M170" s="17"/>
+      <c r="M170" s="7"/>
       <c r="O170" s="1"/>
       <c r="P170" s="4"/>
       <c r="Q170" s="1"/>
@@ -4577,7 +4030,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="L171" s="5"/>
-      <c r="M171" s="17"/>
+      <c r="M171" s="7"/>
       <c r="O171" s="1"/>
       <c r="P171" s="4"/>
       <c r="Q171" s="1"/>
@@ -4597,7 +4050,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="L172" s="5"/>
-      <c r="M172" s="17"/>
+      <c r="M172" s="7"/>
       <c r="O172" s="1"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="1"/>
@@ -4617,7 +4070,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="L173" s="5"/>
-      <c r="M173" s="17"/>
+      <c r="M173" s="7"/>
       <c r="O173" s="1"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="1"/>
@@ -4637,7 +4090,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="L174" s="5"/>
-      <c r="M174" s="17"/>
+      <c r="M174" s="7"/>
       <c r="O174" s="1"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="1"/>
@@ -4657,7 +4110,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="L175" s="5"/>
-      <c r="M175" s="17"/>
+      <c r="M175" s="7"/>
       <c r="O175" s="1"/>
       <c r="P175" s="4"/>
       <c r="Q175" s="1"/>
@@ -4677,7 +4130,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="L176" s="5"/>
-      <c r="M176" s="17"/>
+      <c r="M176" s="7"/>
       <c r="O176" s="1"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="1"/>
@@ -4697,7 +4150,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="L177" s="5"/>
-      <c r="M177" s="17"/>
+      <c r="M177" s="7"/>
       <c r="O177" s="1"/>
       <c r="P177" s="4"/>
       <c r="Q177" s="1"/>
@@ -4717,7 +4170,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="L178" s="5"/>
-      <c r="M178" s="17"/>
+      <c r="M178" s="7"/>
       <c r="O178" s="1"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="1"/>
@@ -4737,7 +4190,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="L179" s="5"/>
-      <c r="M179" s="17"/>
+      <c r="M179" s="7"/>
       <c r="O179" s="1"/>
       <c r="P179" s="4"/>
       <c r="Q179" s="1"/>
@@ -4757,7 +4210,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="L180" s="5"/>
-      <c r="M180" s="17"/>
+      <c r="M180" s="7"/>
       <c r="O180" s="1"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="1"/>
@@ -4777,7 +4230,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="L181" s="5"/>
-      <c r="M181" s="17"/>
+      <c r="M181" s="7"/>
       <c r="O181" s="1"/>
       <c r="P181" s="4"/>
       <c r="Q181" s="1"/>
@@ -4797,7 +4250,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="L182" s="5"/>
-      <c r="M182" s="17"/>
+      <c r="M182" s="7"/>
       <c r="O182" s="1"/>
       <c r="P182" s="4"/>
       <c r="Q182" s="1"/>
@@ -4817,7 +4270,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="L183" s="5"/>
-      <c r="M183" s="17"/>
+      <c r="M183" s="7"/>
       <c r="O183" s="1"/>
       <c r="P183" s="4"/>
       <c r="Q183" s="1"/>
@@ -4837,7 +4290,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="L184" s="5"/>
-      <c r="M184" s="17"/>
+      <c r="M184" s="7"/>
       <c r="O184" s="1"/>
       <c r="P184" s="4"/>
       <c r="Q184" s="1"/>
@@ -4857,7 +4310,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="L185" s="5"/>
-      <c r="M185" s="17"/>
+      <c r="M185" s="7"/>
       <c r="O185" s="1"/>
       <c r="P185" s="4"/>
       <c r="Q185" s="1"/>
@@ -4877,7 +4330,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="L186" s="5"/>
-      <c r="M186" s="17"/>
+      <c r="M186" s="7"/>
       <c r="O186" s="1"/>
       <c r="P186" s="4"/>
       <c r="Q186" s="1"/>
@@ -4897,7 +4350,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="L187" s="5"/>
-      <c r="M187" s="17"/>
+      <c r="M187" s="7"/>
       <c r="O187" s="1"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="1"/>
@@ -4917,7 +4370,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="L188" s="5"/>
-      <c r="M188" s="17"/>
+      <c r="M188" s="7"/>
       <c r="O188" s="1"/>
       <c r="P188" s="4"/>
       <c r="Q188" s="1"/>
@@ -4937,7 +4390,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="L189" s="5"/>
-      <c r="M189" s="17"/>
+      <c r="M189" s="7"/>
       <c r="O189" s="1"/>
       <c r="P189" s="4"/>
       <c r="Q189" s="1"/>
@@ -4957,7 +4410,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="L190" s="5"/>
-      <c r="M190" s="17"/>
+      <c r="M190" s="7"/>
       <c r="O190" s="1"/>
       <c r="P190" s="4"/>
       <c r="Q190" s="1"/>
@@ -4977,7 +4430,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="L191" s="5"/>
-      <c r="M191" s="17"/>
+      <c r="M191" s="7"/>
       <c r="O191" s="1"/>
       <c r="P191" s="4"/>
       <c r="Q191" s="1"/>
@@ -4997,7 +4450,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="L192" s="5"/>
-      <c r="M192" s="17"/>
+      <c r="M192" s="7"/>
       <c r="O192" s="1"/>
       <c r="P192" s="4"/>
       <c r="Q192" s="1"/>
@@ -5017,7 +4470,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="L193" s="5"/>
-      <c r="M193" s="17"/>
+      <c r="M193" s="7"/>
       <c r="O193" s="1"/>
       <c r="P193" s="4"/>
       <c r="Q193" s="1"/>
@@ -5037,7 +4490,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="L194" s="5"/>
-      <c r="M194" s="17"/>
+      <c r="M194" s="7"/>
       <c r="O194" s="1"/>
       <c r="P194" s="4"/>
       <c r="Q194" s="1"/>
@@ -5057,7 +4510,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="L195" s="5"/>
-      <c r="M195" s="17"/>
+      <c r="M195" s="7"/>
       <c r="O195" s="1"/>
       <c r="P195" s="4"/>
       <c r="Q195" s="1"/>
@@ -5077,7 +4530,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="L196" s="5"/>
-      <c r="M196" s="17"/>
+      <c r="M196" s="7"/>
       <c r="O196" s="1"/>
       <c r="P196" s="4"/>
       <c r="Q196" s="1"/>
@@ -5097,7 +4550,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="L197" s="5"/>
-      <c r="M197" s="17"/>
+      <c r="M197" s="7"/>
       <c r="O197" s="1"/>
       <c r="P197" s="4"/>
       <c r="Q197" s="1"/>
@@ -5117,7 +4570,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="L198" s="5"/>
-      <c r="M198" s="17"/>
+      <c r="M198" s="7"/>
       <c r="O198" s="1"/>
       <c r="P198" s="4"/>
       <c r="Q198" s="1"/>
@@ -5137,7 +4590,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="L199" s="5"/>
-      <c r="M199" s="17"/>
+      <c r="M199" s="7"/>
       <c r="O199" s="1"/>
       <c r="P199" s="4"/>
       <c r="Q199" s="1"/>
@@ -5157,7 +4610,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="L200" s="5"/>
-      <c r="M200" s="17"/>
+      <c r="M200" s="7"/>
       <c r="O200" s="1"/>
       <c r="P200" s="4"/>
       <c r="Q200" s="1"/>
@@ -5177,7 +4630,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="L201" s="5"/>
-      <c r="M201" s="17"/>
+      <c r="M201" s="7"/>
       <c r="O201" s="1"/>
       <c r="P201" s="4"/>
       <c r="Q201" s="1"/>
@@ -5197,7 +4650,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="L202" s="5"/>
-      <c r="M202" s="17"/>
+      <c r="M202" s="7"/>
       <c r="O202" s="1"/>
       <c r="P202" s="4"/>
       <c r="Q202" s="1"/>
@@ -5217,7 +4670,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="L203" s="5"/>
-      <c r="M203" s="17"/>
+      <c r="M203" s="7"/>
       <c r="O203" s="1"/>
       <c r="P203" s="4"/>
       <c r="Q203" s="1"/>
@@ -5237,7 +4690,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="L204" s="5"/>
-      <c r="M204" s="17"/>
+      <c r="M204" s="7"/>
       <c r="O204" s="1"/>
       <c r="P204" s="4"/>
       <c r="Q204" s="1"/>
@@ -5257,7 +4710,7 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="L205" s="5"/>
-      <c r="M205" s="17"/>
+      <c r="M205" s="7"/>
       <c r="O205" s="1"/>
       <c r="P205" s="4"/>
       <c r="Q205" s="1"/>
@@ -5277,7 +4730,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="L206" s="5"/>
-      <c r="M206" s="17"/>
+      <c r="M206" s="7"/>
       <c r="O206" s="1"/>
       <c r="P206" s="4"/>
       <c r="Q206" s="1"/>
@@ -5297,7 +4750,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="L207" s="5"/>
-      <c r="M207" s="17"/>
+      <c r="M207" s="7"/>
       <c r="O207" s="1"/>
       <c r="P207" s="4"/>
       <c r="Q207" s="1"/>
@@ -5317,7 +4770,7 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="L208" s="5"/>
-      <c r="M208" s="17"/>
+      <c r="M208" s="7"/>
       <c r="O208" s="1"/>
       <c r="P208" s="4"/>
       <c r="Q208" s="1"/>
@@ -5337,7 +4790,7 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="L209" s="5"/>
-      <c r="M209" s="17"/>
+      <c r="M209" s="7"/>
       <c r="O209" s="1"/>
       <c r="P209" s="4"/>
       <c r="Q209" s="1"/>
@@ -5357,7 +4810,7 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="L210" s="5"/>
-      <c r="M210" s="17"/>
+      <c r="M210" s="7"/>
       <c r="O210" s="1"/>
       <c r="P210" s="4"/>
       <c r="Q210" s="1"/>
@@ -5377,7 +4830,7 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="L211" s="5"/>
-      <c r="M211" s="17"/>
+      <c r="M211" s="7"/>
       <c r="O211" s="1"/>
       <c r="P211" s="4"/>
       <c r="Q211" s="1"/>
@@ -5397,7 +4850,7 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="L212" s="5"/>
-      <c r="M212" s="17"/>
+      <c r="M212" s="7"/>
       <c r="O212" s="1"/>
       <c r="P212" s="4"/>
       <c r="Q212" s="1"/>
@@ -5417,7 +4870,7 @@
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="L213" s="5"/>
-      <c r="M213" s="17"/>
+      <c r="M213" s="7"/>
       <c r="O213" s="1"/>
       <c r="P213" s="4"/>
       <c r="Q213" s="1"/>
@@ -5437,7 +4890,7 @@
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
       <c r="L214" s="5"/>
-      <c r="M214" s="17"/>
+      <c r="M214" s="7"/>
       <c r="O214" s="1"/>
       <c r="P214" s="4"/>
       <c r="Q214" s="1"/>
@@ -5457,7 +4910,7 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="L215" s="5"/>
-      <c r="M215" s="17"/>
+      <c r="M215" s="7"/>
       <c r="O215" s="1"/>
       <c r="P215" s="4"/>
       <c r="Q215" s="1"/>
@@ -5477,7 +4930,7 @@
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="L216" s="5"/>
-      <c r="M216" s="17"/>
+      <c r="M216" s="7"/>
       <c r="O216" s="1"/>
       <c r="P216" s="4"/>
       <c r="Q216" s="1"/>
@@ -5497,7 +4950,7 @@
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="L217" s="5"/>
-      <c r="M217" s="17"/>
+      <c r="M217" s="7"/>
       <c r="O217" s="1"/>
       <c r="P217" s="4"/>
       <c r="Q217" s="1"/>
@@ -5517,7 +4970,7 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="L218" s="5"/>
-      <c r="M218" s="17"/>
+      <c r="M218" s="7"/>
       <c r="O218" s="1"/>
       <c r="P218" s="4"/>
       <c r="Q218" s="1"/>
@@ -5537,7 +4990,7 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="L219" s="5"/>
-      <c r="M219" s="17"/>
+      <c r="M219" s="7"/>
       <c r="O219" s="1"/>
       <c r="P219" s="4"/>
       <c r="Q219" s="1"/>
@@ -5557,7 +5010,7 @@
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="L220" s="5"/>
-      <c r="M220" s="17"/>
+      <c r="M220" s="7"/>
       <c r="O220" s="1"/>
       <c r="P220" s="4"/>
       <c r="Q220" s="1"/>
@@ -5577,7 +5030,7 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="L221" s="5"/>
-      <c r="M221" s="17"/>
+      <c r="M221" s="7"/>
       <c r="O221" s="1"/>
       <c r="P221" s="4"/>
       <c r="Q221" s="1"/>
@@ -5597,7 +5050,7 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="L222" s="5"/>
-      <c r="M222" s="17"/>
+      <c r="M222" s="7"/>
       <c r="O222" s="1"/>
       <c r="P222" s="4"/>
       <c r="Q222" s="1"/>
@@ -5617,7 +5070,7 @@
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="L223" s="5"/>
-      <c r="M223" s="17"/>
+      <c r="M223" s="7"/>
       <c r="O223" s="1"/>
       <c r="P223" s="4"/>
       <c r="Q223" s="1"/>
@@ -5637,7 +5090,7 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="L224" s="5"/>
-      <c r="M224" s="17"/>
+      <c r="M224" s="7"/>
       <c r="O224" s="1"/>
       <c r="P224" s="4"/>
       <c r="Q224" s="1"/>
@@ -5657,7 +5110,7 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="L225" s="5"/>
-      <c r="M225" s="17"/>
+      <c r="M225" s="7"/>
       <c r="O225" s="1"/>
       <c r="P225" s="4"/>
       <c r="Q225" s="1"/>
@@ -5677,7 +5130,7 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="L226" s="5"/>
-      <c r="M226" s="17"/>
+      <c r="M226" s="7"/>
       <c r="O226" s="1"/>
       <c r="P226" s="4"/>
       <c r="Q226" s="1"/>
@@ -5697,7 +5150,7 @@
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="L227" s="5"/>
-      <c r="M227" s="17"/>
+      <c r="M227" s="7"/>
       <c r="O227" s="1"/>
       <c r="P227" s="4"/>
       <c r="Q227" s="1"/>
@@ -5717,7 +5170,7 @@
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="L228" s="5"/>
-      <c r="M228" s="17"/>
+      <c r="M228" s="7"/>
       <c r="O228" s="1"/>
       <c r="P228" s="4"/>
       <c r="Q228" s="1"/>
@@ -5737,7 +5190,7 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="L229" s="5"/>
-      <c r="M229" s="17"/>
+      <c r="M229" s="7"/>
       <c r="O229" s="1"/>
       <c r="P229" s="4"/>
       <c r="Q229" s="1"/>
@@ -5757,7 +5210,7 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="L230" s="5"/>
-      <c r="M230" s="17"/>
+      <c r="M230" s="7"/>
       <c r="O230" s="1"/>
       <c r="P230" s="4"/>
       <c r="Q230" s="1"/>
@@ -5777,7 +5230,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="L231" s="5"/>
-      <c r="M231" s="17"/>
+      <c r="M231" s="7"/>
       <c r="O231" s="1"/>
       <c r="P231" s="4"/>
       <c r="Q231" s="1"/>
@@ -5797,7 +5250,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
       <c r="L232" s="5"/>
-      <c r="M232" s="17"/>
+      <c r="M232" s="7"/>
       <c r="O232" s="1"/>
       <c r="P232" s="4"/>
       <c r="Q232" s="1"/>
@@ -5817,7 +5270,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="L233" s="5"/>
-      <c r="M233" s="17"/>
+      <c r="M233" s="7"/>
       <c r="O233" s="1"/>
       <c r="P233" s="4"/>
       <c r="Q233" s="1"/>
@@ -5837,7 +5290,7 @@
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="L234" s="5"/>
-      <c r="M234" s="17"/>
+      <c r="M234" s="7"/>
       <c r="O234" s="1"/>
       <c r="P234" s="4"/>
       <c r="Q234" s="1"/>
@@ -5857,7 +5310,7 @@
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="L235" s="5"/>
-      <c r="M235" s="17"/>
+      <c r="M235" s="7"/>
       <c r="O235" s="1"/>
       <c r="P235" s="4"/>
       <c r="Q235" s="1"/>
@@ -5877,7 +5330,7 @@
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="L236" s="5"/>
-      <c r="M236" s="17"/>
+      <c r="M236" s="7"/>
       <c r="O236" s="1"/>
       <c r="P236" s="4"/>
       <c r="Q236" s="1"/>
@@ -5897,7 +5350,7 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
       <c r="L237" s="5"/>
-      <c r="M237" s="17"/>
+      <c r="M237" s="7"/>
       <c r="O237" s="1"/>
       <c r="P237" s="4"/>
       <c r="Q237" s="1"/>
@@ -5917,7 +5370,7 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="L238" s="5"/>
-      <c r="M238" s="17"/>
+      <c r="M238" s="7"/>
       <c r="O238" s="1"/>
       <c r="P238" s="4"/>
       <c r="Q238" s="1"/>
@@ -5937,7 +5390,7 @@
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="L239" s="5"/>
-      <c r="M239" s="17"/>
+      <c r="M239" s="7"/>
       <c r="O239" s="1"/>
       <c r="P239" s="4"/>
       <c r="Q239" s="1"/>
@@ -5957,7 +5410,7 @@
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="L240" s="5"/>
-      <c r="M240" s="17"/>
+      <c r="M240" s="7"/>
       <c r="O240" s="1"/>
       <c r="P240" s="4"/>
       <c r="Q240" s="1"/>
@@ -5977,7 +5430,7 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="L241" s="5"/>
-      <c r="M241" s="17"/>
+      <c r="M241" s="7"/>
       <c r="O241" s="1"/>
       <c r="P241" s="4"/>
       <c r="Q241" s="1"/>
@@ -5997,7 +5450,7 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="L242" s="5"/>
-      <c r="M242" s="17"/>
+      <c r="M242" s="7"/>
       <c r="O242" s="1"/>
       <c r="P242" s="4"/>
       <c r="Q242" s="1"/>
@@ -6017,7 +5470,7 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="L243" s="5"/>
-      <c r="M243" s="17"/>
+      <c r="M243" s="7"/>
       <c r="O243" s="1"/>
       <c r="P243" s="4"/>
       <c r="Q243" s="1"/>
@@ -6037,7 +5490,7 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
       <c r="L244" s="5"/>
-      <c r="M244" s="17"/>
+      <c r="M244" s="7"/>
       <c r="O244" s="1"/>
       <c r="P244" s="4"/>
       <c r="Q244" s="1"/>
@@ -6057,7 +5510,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="L245" s="5"/>
-      <c r="M245" s="17"/>
+      <c r="M245" s="7"/>
       <c r="O245" s="1"/>
       <c r="P245" s="4"/>
       <c r="Q245" s="1"/>
@@ -6077,7 +5530,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="L246" s="5"/>
-      <c r="M246" s="17"/>
+      <c r="M246" s="7"/>
       <c r="O246" s="1"/>
       <c r="P246" s="4"/>
       <c r="Q246" s="1"/>
@@ -6097,7 +5550,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="L247" s="5"/>
-      <c r="M247" s="17"/>
+      <c r="M247" s="7"/>
       <c r="O247" s="1"/>
       <c r="P247" s="4"/>
       <c r="Q247" s="1"/>
@@ -6117,7 +5570,7 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="L248" s="5"/>
-      <c r="M248" s="17"/>
+      <c r="M248" s="7"/>
       <c r="O248" s="1"/>
       <c r="P248" s="4"/>
       <c r="Q248" s="1"/>
@@ -6137,7 +5590,7 @@
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
       <c r="L249" s="5"/>
-      <c r="M249" s="17"/>
+      <c r="M249" s="7"/>
       <c r="O249" s="1"/>
       <c r="P249" s="4"/>
       <c r="Q249" s="1"/>
@@ -6157,7 +5610,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
       <c r="L250" s="5"/>
-      <c r="M250" s="17"/>
+      <c r="M250" s="7"/>
       <c r="O250" s="1"/>
       <c r="P250" s="4"/>
       <c r="Q250" s="1"/>
@@ -6177,7 +5630,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
       <c r="L251" s="5"/>
-      <c r="M251" s="17"/>
+      <c r="M251" s="7"/>
       <c r="O251" s="1"/>
       <c r="P251" s="4"/>
       <c r="Q251" s="1"/>
@@ -6197,7 +5650,7 @@
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
       <c r="L252" s="5"/>
-      <c r="M252" s="17"/>
+      <c r="M252" s="7"/>
       <c r="O252" s="1"/>
       <c r="P252" s="4"/>
       <c r="Q252" s="1"/>
@@ -6217,7 +5670,7 @@
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
       <c r="L253" s="5"/>
-      <c r="M253" s="17"/>
+      <c r="M253" s="7"/>
       <c r="O253" s="1"/>
       <c r="P253" s="4"/>
       <c r="Q253" s="1"/>
@@ -6237,7 +5690,7 @@
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
       <c r="L254" s="5"/>
-      <c r="M254" s="17"/>
+      <c r="M254" s="7"/>
       <c r="O254" s="1"/>
       <c r="P254" s="4"/>
       <c r="Q254" s="1"/>
@@ -6257,7 +5710,7 @@
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
       <c r="L255" s="5"/>
-      <c r="M255" s="17"/>
+      <c r="M255" s="7"/>
       <c r="O255" s="1"/>
       <c r="P255" s="4"/>
       <c r="Q255" s="1"/>
@@ -6277,7 +5730,7 @@
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
       <c r="L256" s="5"/>
-      <c r="M256" s="17"/>
+      <c r="M256" s="7"/>
       <c r="O256" s="1"/>
       <c r="P256" s="4"/>
       <c r="Q256" s="1"/>
@@ -6297,7 +5750,7 @@
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
       <c r="L257" s="5"/>
-      <c r="M257" s="17"/>
+      <c r="M257" s="7"/>
       <c r="O257" s="1"/>
       <c r="P257" s="4"/>
       <c r="Q257" s="1"/>
@@ -6317,7 +5770,7 @@
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
       <c r="L258" s="5"/>
-      <c r="M258" s="17"/>
+      <c r="M258" s="7"/>
       <c r="O258" s="1"/>
       <c r="P258" s="4"/>
       <c r="Q258" s="1"/>
@@ -6337,7 +5790,7 @@
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
       <c r="L259" s="5"/>
-      <c r="M259" s="17"/>
+      <c r="M259" s="7"/>
       <c r="O259" s="1"/>
       <c r="P259" s="4"/>
       <c r="Q259" s="1"/>
@@ -6357,7 +5810,7 @@
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
       <c r="L260" s="5"/>
-      <c r="M260" s="17"/>
+      <c r="M260" s="7"/>
       <c r="O260" s="1"/>
       <c r="P260" s="4"/>
       <c r="Q260" s="1"/>
@@ -6377,7 +5830,7 @@
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
       <c r="L261" s="5"/>
-      <c r="M261" s="17"/>
+      <c r="M261" s="7"/>
       <c r="O261" s="1"/>
       <c r="P261" s="4"/>
       <c r="Q261" s="1"/>
@@ -6397,7 +5850,7 @@
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
       <c r="L262" s="5"/>
-      <c r="M262" s="17"/>
+      <c r="M262" s="7"/>
       <c r="O262" s="1"/>
       <c r="P262" s="4"/>
       <c r="Q262" s="1"/>
@@ -6417,7 +5870,7 @@
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
       <c r="L263" s="5"/>
-      <c r="M263" s="17"/>
+      <c r="M263" s="7"/>
       <c r="O263" s="1"/>
       <c r="P263" s="4"/>
       <c r="Q263" s="1"/>
@@ -6437,7 +5890,7 @@
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
       <c r="L264" s="5"/>
-      <c r="M264" s="17"/>
+      <c r="M264" s="7"/>
       <c r="O264" s="1"/>
       <c r="P264" s="4"/>
       <c r="Q264" s="1"/>
@@ -6457,7 +5910,7 @@
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
       <c r="L265" s="5"/>
-      <c r="M265" s="17"/>
+      <c r="M265" s="7"/>
       <c r="O265" s="1"/>
       <c r="P265" s="4"/>
       <c r="Q265" s="1"/>
@@ -6477,7 +5930,7 @@
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
       <c r="L266" s="5"/>
-      <c r="M266" s="17"/>
+      <c r="M266" s="7"/>
       <c r="O266" s="1"/>
       <c r="P266" s="4"/>
       <c r="Q266" s="1"/>
@@ -6497,7 +5950,7 @@
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
       <c r="L267" s="5"/>
-      <c r="M267" s="17"/>
+      <c r="M267" s="7"/>
       <c r="O267" s="1"/>
       <c r="P267" s="4"/>
       <c r="Q267" s="1"/>
@@ -6517,7 +5970,7 @@
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
       <c r="L268" s="5"/>
-      <c r="M268" s="17"/>
+      <c r="M268" s="7"/>
       <c r="O268" s="1"/>
       <c r="P268" s="4"/>
       <c r="Q268" s="1"/>
@@ -6529,6 +5982,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="B2:B7"/>
@@ -6545,7 +5999,6 @@
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="R5:R7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
